--- a/Modelagem/ModeloFisico/ModeloFisico.xlsx
+++ b/Modelagem/ModeloFisico/ModeloFisico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Henrique\Desktop\GITHUB - Exercicios\ProjetoSENAI---Jogos\Modelagem\ModeloFisico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98600882-1592-44FE-A75D-DA68912F5BB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDE08D3-C4A6-481B-AC5F-27FA200EFF59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6156" yWindow="1908" windowWidth="16884" windowHeight="8964" xr2:uid="{9C254E5C-CBD4-43E2-9200-8687BC34ABDE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9C254E5C-CBD4-43E2-9200-8687BC34ABDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Estudio</t>
   </si>
@@ -79,13 +79,52 @@
   </si>
   <si>
     <t>Usuarios</t>
+  </si>
+  <si>
+    <t>Diablo</t>
+  </si>
+  <si>
+    <t>Red Dead Remption II</t>
+  </si>
+  <si>
+    <t>É um jogo que contém bastante ação e é viciante, seja você um novato ou um fã</t>
+  </si>
+  <si>
+    <t>Jogo eletrônico de ação-aventura western</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Blizzard</t>
+  </si>
+  <si>
+    <t>Rockstar</t>
+  </si>
+  <si>
+    <t>Square Enix</t>
+  </si>
+  <si>
+    <t>admim@admin.com</t>
+  </si>
+  <si>
+    <t>cliente@cliente.com</t>
+  </si>
+  <si>
+    <t>cliente</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,13 +132,69 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -111,20 +206,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0000"/>
+      <color rgb="FFCC0000"/>
+      <color rgb="FF00FF00"/>
+      <color rgb="FF00CC00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -433,42 +556,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0360A9-283F-4FFB-9997-FADF3A512F97}">
-  <dimension ref="B3:S4"/>
+  <dimension ref="B3:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="M3" s="1" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="M3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="1"/>
+      <c r="N3" s="8"/>
       <c r="P3" s="1" t="s">
         <v>15</v>
       </c>
@@ -477,58 +601,172 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="F4" t="s">
+      <c r="D4" s="4"/>
+      <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="10" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="7">
+        <v>40983</v>
+      </c>
+      <c r="J5" s="6">
+        <v>99</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+      <c r="M5" s="9">
+        <v>1</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="F6" s="6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="7">
+        <v>43369</v>
+      </c>
+      <c r="J6" s="6">
+        <v>120</v>
+      </c>
+      <c r="K6" s="6">
+        <v>2</v>
+      </c>
+      <c r="M6" s="9">
+        <v>2</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="F7" s="6">
+        <v>3</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="P3:S3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="Q5" r:id="rId1" xr:uid="{F02EA32D-4277-4D75-AC10-5292815FB381}"/>
+    <hyperlink ref="Q6" r:id="rId2" xr:uid="{E0A32B3C-EAD0-44A3-B585-32492B55E3E1}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>